--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1372920.205124752</v>
+        <v>-1375401.124950211</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834738</v>
+        <v>10721426.73834739</v>
       </c>
     </row>
     <row r="8">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
-        <v>338.352745183881</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545849</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663269</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001939</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579944</v>
+        <v>14.65678318579961</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.2676152010493</v>
+        <v>82.26761520104948</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524936</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>114.0206791032364</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830084</v>
+        <v>300.8321118830086</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302867</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913425</v>
+        <v>342.8109540913427</v>
       </c>
       <c r="Y11" t="n">
-        <v>228.1157204450487</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115013</v>
+        <v>140.3266745115015</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310858</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594426</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358047</v>
+        <v>118.5009014358049</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719017</v>
+        <v>139.1056616719019</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271942</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271155</v>
+        <v>69.43227382271172</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292082</v>
+        <v>62.01200608292099</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>106.9438246999549</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367017</v>
       </c>
       <c r="W13" t="n">
-        <v>135.9892309165732</v>
+        <v>259.6028517494647</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019106</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.6645067649685</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>66.58291379630623</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663271</v>
+        <v>356.2148479988376</v>
       </c>
       <c r="H14" t="n">
         <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579958</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104948</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524938</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>224.0750253717756</v>
@@ -1667,7 +1667,7 @@
         <v>300.8321118830086</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302867</v>
       </c>
       <c r="X14" t="n">
         <v>342.8109540913427</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824763</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.911833594811</v>
       </c>
       <c r="C16" t="n">
         <v>140.3266745115015</v>
@@ -1777,13 +1777,13 @@
         <v>118.5009014358049</v>
       </c>
       <c r="G16" t="n">
-        <v>123.3898640166963</v>
+        <v>101.9223103275183</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271175</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.012006082921</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443156</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
         <v>192.6288026890429</v>
@@ -1844,13 +1844,13 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>266.3605771184272</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D17" t="n">
         <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359924</v>
@@ -1859,7 +1859,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816015</v>
+        <v>52.97552838455729</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245681</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
         <v>253.8569752644159</v>
@@ -1910,7 +1910,7 @@
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860174</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411907</v>
+        <v>22.45713720411913</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>77.43656365929169</v>
+        <v>15.03686946432836</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2056,7 +2056,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>274.7162491948561</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
@@ -2065,7 +2065,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463758</v>
@@ -2081,7 +2081,7 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D20" t="n">
         <v>280.7877584149639</v>
@@ -2096,7 +2096,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245679</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>9.362935956138481</v>
       </c>
       <c r="V20" t="n">
         <v>253.8569752644159</v>
@@ -2144,10 +2144,10 @@
         <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>183.496180340948</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.3363911711822</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860174</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411906</v>
+        <v>22.45713720411913</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432829</v>
+        <v>15.03686946432836</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
@@ -2293,16 +2293,16 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>212.627715130872</v>
+        <v>275.0274093258346</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2318,7 +2318,7 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D23" t="n">
         <v>280.7877584149639</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
         <v>253.8569752644159</v>
@@ -2384,7 +2384,7 @@
         <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="24">
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H25" t="n">
-        <v>133.2594259035652</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411907</v>
+        <v>22.45713720411913</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.0368694643283</v>
+        <v>15.03686946432836</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704502</v>
+        <v>208.0533602654124</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
@@ -2539,7 +2539,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210277</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I28" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958338</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210277</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797668</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124562</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353754</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C35" t="n">
         <v>267.5881715429024</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925778</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441566</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F35" t="n">
         <v>309.1913255136063</v>
@@ -3281,7 +3281,7 @@
         <v>313.2370054253483</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592153</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007068</v>
+        <v>11.50304156007076</v>
       </c>
       <c r="T35" t="n">
-        <v>106.233249911515</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307968</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420297</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893078</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X35" t="n">
         <v>272.0463804503639</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279484</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383213</v>
+        <v>82.1472599538322</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052267</v>
+        <v>69.56210087052274</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010719</v>
+        <v>50.93075279010726</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846401</v>
+        <v>48.74924241846408</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482608</v>
+        <v>47.73632779482615</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092306</v>
+        <v>68.34108803092313</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621562</v>
+        <v>47.07029468621569</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>143.0438109257895</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U37" t="n">
-        <v>239.4866237999609</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084858</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>128.024935160932</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239896</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353754</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925778</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441566</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592153</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600707</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T38" t="n">
-        <v>106.233249911515</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307968</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420297</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893078</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279484</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383215</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052268</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010721</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846402</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>47.7363277948261</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092307</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621563</v>
+        <v>89.27723295060962</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T40" t="n">
-        <v>121.864229048064</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>230.7340562419029</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239896</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3755,7 +3755,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
@@ -3806,7 +3806,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F43" t="n">
-        <v>89.94326605922025</v>
+        <v>100.0281334355448</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092323</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621579</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
         <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
         <v>120.8999331239898</v>
@@ -3977,7 +3977,7 @@
         <v>285.0491214353755</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
         <v>256.9983213925779</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007076</v>
+        <v>11.50304156007077</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115151</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.1472599538322</v>
+        <v>82.14725995383222</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052274</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010726</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846408</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482615</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092313</v>
+        <v>68.34108803092315</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621569</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333682</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>172.8237348705166</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>205.4124289181752</v>
       </c>
       <c r="W46" t="n">
         <v>188.8382781084859</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239897</v>
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1823.749336508872</v>
+        <v>1429.258680645328</v>
       </c>
       <c r="C11" t="n">
-        <v>1481.978886828184</v>
+        <v>1429.258680645328</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.978886828184</v>
+        <v>1098.185049298301</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489663</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597797</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810644999</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299096</v>
+        <v>81.31694793299101</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939509</v>
@@ -5069,22 +5069,22 @@
         <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039936</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="U11" t="n">
-        <v>3063.721540039936</v>
+        <v>3127.334817261408</v>
       </c>
       <c r="V11" t="n">
-        <v>2759.850719956089</v>
+        <v>2823.463997177561</v>
       </c>
       <c r="W11" t="n">
-        <v>2759.850719956089</v>
+        <v>2497.887409167171</v>
       </c>
       <c r="X11" t="n">
-        <v>2413.577028954733</v>
+        <v>2151.613718165814</v>
       </c>
       <c r="Y11" t="n">
-        <v>2183.15710931327</v>
+        <v>1788.666453449726</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064548</v>
@@ -5118,19 +5118,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
         <v>2096.912393410638</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>901.2692096237411</v>
+        <v>659.3195179487111</v>
       </c>
       <c r="C13" t="n">
-        <v>759.525093955558</v>
+        <v>517.5754022805282</v>
       </c>
       <c r="D13" t="n">
-        <v>636.600521802946</v>
+        <v>517.5754022805282</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8794954802767</v>
+        <v>396.8543759578587</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420901</v>
+        <v>277.156495719672</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765328</v>
+        <v>136.6457263541145</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541143</v>
+        <v>136.6457263541145</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705059</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402574</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.942556361062</v>
+        <v>1082.942556361061</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.001878188182</v>
+        <v>1451.00187818818</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784765</v>
+        <v>2036.240867784763</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058535</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075787</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>2077.863719075787</v>
+        <v>1913.369902162334</v>
       </c>
       <c r="T13" t="n">
-        <v>1883.289170905036</v>
+        <v>1805.345836808845</v>
       </c>
       <c r="U13" t="n">
-        <v>1621.378371290404</v>
+        <v>1543.435037194212</v>
       </c>
       <c r="V13" t="n">
-        <v>1393.885950344241</v>
+        <v>1315.942616248048</v>
       </c>
       <c r="W13" t="n">
-        <v>1256.523090832551</v>
+        <v>1053.717513470811</v>
       </c>
       <c r="X13" t="n">
-        <v>1055.725607194257</v>
+        <v>852.9200298325176</v>
       </c>
       <c r="Y13" t="n">
-        <v>1055.725607194257</v>
+        <v>659.3195179487111</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1464.883581967805</v>
+        <v>1401.191275526652</v>
       </c>
       <c r="C14" t="n">
-        <v>1123.113132287117</v>
+        <v>1401.191275526652</v>
       </c>
       <c r="D14" t="n">
-        <v>792.0395009400899</v>
+        <v>1070.117644179625</v>
       </c>
       <c r="E14" t="n">
-        <v>792.0395009400899</v>
+        <v>711.5214588411043</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7840324589724</v>
+        <v>711.5214588411043</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9036495636925</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>81.3169479329911</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395989</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039935</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573494</v>
+        <v>3099.267412142732</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.512310489647</v>
+        <v>2795.396592058885</v>
       </c>
       <c r="W14" t="n">
-        <v>2533.512310489647</v>
+        <v>2469.820004048494</v>
       </c>
       <c r="X14" t="n">
-        <v>2187.238619488291</v>
+        <v>2123.546313047138</v>
       </c>
       <c r="Y14" t="n">
-        <v>1824.291354772203</v>
+        <v>1760.59904833105</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064588</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>766.3695470152576</v>
+        <v>674.55153942749</v>
       </c>
       <c r="C16" t="n">
-        <v>624.6254313470743</v>
+        <v>532.8074237593066</v>
       </c>
       <c r="D16" t="n">
-        <v>501.7008591944622</v>
+        <v>409.8828516066945</v>
       </c>
       <c r="E16" t="n">
-        <v>380.9798328717927</v>
+        <v>289.161825284025</v>
       </c>
       <c r="F16" t="n">
-        <v>261.2819526336059</v>
+        <v>169.4639450458382</v>
       </c>
       <c r="G16" t="n">
-        <v>136.6457263541145</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541145</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705055</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402567</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.00187818818</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
         <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075785</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162335</v>
+        <v>1976.008292145083</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991585</v>
+        <v>1781.433743974333</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376952</v>
+        <v>1519.5229443597</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.392133430788</v>
+        <v>1292.030523413537</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535514</v>
+        <v>1029.8054206363</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3695470152576</v>
+        <v>829.007936998006</v>
       </c>
       <c r="Y16" t="n">
-        <v>766.3695470152576</v>
+        <v>829.007936998006</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1518.904057542002</v>
+        <v>1685.889073215092</v>
       </c>
       <c r="C17" t="n">
-        <v>1249.85296954359</v>
+        <v>1391.568256482477</v>
       </c>
       <c r="D17" t="n">
-        <v>966.2289711446365</v>
+        <v>1107.944258083524</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446365</v>
+        <v>796.7977056930768</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628259</v>
+        <v>460.4535011112662</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156193</v>
+        <v>120.0227511640595</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912109</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810573</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344062</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936082</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417715</v>
+        <v>3146.717045090805</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281941</v>
+        <v>2890.295857955031</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219624</v>
+        <v>2612.168902892714</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.359829166341</v>
+        <v>2313.344844839431</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.862197398326</v>
+        <v>1997.847213071416</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5586,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5598,22 +5598,22 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872283</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671184</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625797</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879836</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604107</v>
+        <v>89.19609340604114</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
@@ -5695,28 +5695,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1849.075796917491</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
-        <v>1732.031612952114</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.906697729437</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.445531062878</v>
+        <v>1370.445531062879</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.402743064788</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356243</v>
+        <v>975.6272732356249</v>
       </c>
       <c r="X19" t="n">
-        <v>822.279422545404</v>
+        <v>822.2794225454045</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096709</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1632.378438483216</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C20" t="n">
-        <v>1338.057621750601</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D20" t="n">
-        <v>1054.433623351648</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>743.2870709612005</v>
+        <v>966.2289711446366</v>
       </c>
       <c r="F20" t="n">
-        <v>406.94286637939</v>
+        <v>629.884766562826</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912088</v>
@@ -5756,16 +5756,16 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296685</v>
@@ -5774,28 +5774,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344063</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936082</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417715</v>
+        <v>3316.148310542365</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281941</v>
+        <v>3059.727123406592</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219624</v>
+        <v>2781.600168344275</v>
       </c>
       <c r="X20" t="n">
-        <v>2259.834210107555</v>
+        <v>2482.776110290992</v>
       </c>
       <c r="Y20" t="n">
-        <v>1944.336578339541</v>
+        <v>2167.278478522977</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872283</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671184</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625797</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879836</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604106</v>
+        <v>89.19609340604114</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.061607088441</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T22" t="n">
         <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199205</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1253.432737201114</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371952</v>
+        <v>975.6272732356249</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817312</v>
+        <v>822.2794225454045</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459982</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.18597705695</v>
+        <v>1862.185977056952</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324336</v>
+        <v>1567.865160324337</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925382</v>
+        <v>1284.241161925384</v>
       </c>
       <c r="E23" t="n">
-        <v>973.094609534935</v>
+        <v>973.0946095349364</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531244</v>
+        <v>636.7504049531258</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059182</v>
+        <v>296.3196550059183</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J23" t="n">
-        <v>388.481326152852</v>
+        <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>722.3006998426984</v>
+        <v>916.9802179168072</v>
       </c>
       <c r="L23" t="n">
-        <v>1173.334913091107</v>
+        <v>1368.014431165216</v>
       </c>
       <c r="M23" t="n">
-        <v>1706.866817763031</v>
+        <v>1901.54633583714</v>
       </c>
       <c r="N23" t="n">
-        <v>2253.645634821813</v>
+        <v>2448.325152895922</v>
       </c>
       <c r="O23" t="n">
-        <v>2756.61810570115</v>
+        <v>2951.297623775259</v>
       </c>
       <c r="P23" t="n">
-        <v>3151.392472058328</v>
+        <v>3361.584312811636</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567316</v>
+        <v>3609.870674567318</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124119</v>
+        <v>3668.887741124121</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859011</v>
+        <v>3633.238772859013</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.90272545103</v>
+        <v>3501.902725451032</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932664</v>
+        <v>3323.013948932665</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.59276179689</v>
+        <v>3066.592761796891</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734573</v>
+        <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.64174868129</v>
+        <v>2489.641748681292</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913275</v>
+        <v>2174.144116913277</v>
       </c>
     </row>
     <row r="24">
@@ -6054,19 +6054,19 @@
         <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.2500409504589</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.886940783077</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094449</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243131</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
         <v>405.3192232934471</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.017411513854</v>
+        <v>575.9874173775277</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937441</v>
+        <v>481.6929346574178</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2479895892054</v>
+        <v>406.217995452879</v>
       </c>
       <c r="E25" t="n">
-        <v>395.9765962146093</v>
+        <v>332.9466020782829</v>
       </c>
       <c r="F25" t="n">
-        <v>323.728348924496</v>
+        <v>260.6983547881695</v>
       </c>
       <c r="G25" t="n">
-        <v>230.667212507012</v>
+        <v>167.6372183706854</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634003</v>
+        <v>96.06173179634013</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5003872694179</v>
+        <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182942</v>
+        <v>322.4875702182943</v>
       </c>
       <c r="L25" t="n">
         <v>639.0473686667904</v>
@@ -6172,25 +6172,25 @@
         <v>1918.971429444116</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1801.927245478739</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256063</v>
+        <v>1591.772336119737</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589503</v>
+        <v>1377.311169453178</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591414</v>
+        <v>1197.268381455088</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52290576225</v>
+        <v>982.4929116259239</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720297</v>
+        <v>829.1450609357034</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362967</v>
+        <v>682.9941819999704</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6203,52 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.845421545561</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623798</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N26" t="n">
-        <v>2580.208754682581</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O26" t="n">
-        <v>3083.181225561917</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P26" t="n">
-        <v>3477.955591919095</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q26" t="n">
-        <v>3936.433794428083</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309627</v>
@@ -6260,7 +6260,7 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6269,7 +6269,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572841</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676539</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803193</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913845</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415473</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982159</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350172</v>
@@ -6400,34 +6400,34 @@
         <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,52 +6449,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486247</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.596005545029</v>
+        <v>2456.094314970129</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424366</v>
+        <v>2959.066785849466</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3672.421873296411</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6503,10 +6503,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
@@ -6546,13 +6546,13 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643392</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302703</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
@@ -6625,7 +6625,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6649,13 +6649,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6674,73 +6674,73 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398484</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668885</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>792.1780824632704</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1243.212295711679</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M32" t="n">
-        <v>1776.744200383603</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N32" t="n">
-        <v>2323.523017442385</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O32" t="n">
-        <v>2826.495488321722</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768668</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6789,13 +6789,13 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913846</v>
+        <v>449.4840331913837</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415466</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982181</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,19 +6920,19 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464978</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307338</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495726</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912087</v>
@@ -6944,43 +6944,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710107</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7032,7 +7032,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170912</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630278</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245357</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159862</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919194</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G37" t="n">
-        <v>114.057868640482</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7120,25 +7120,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1692.975392941182</v>
       </c>
       <c r="T37" t="n">
-        <v>1424.011591242373</v>
+        <v>1569.880212084552</v>
       </c>
       <c r="U37" t="n">
-        <v>1182.105910636351</v>
+        <v>1280.777345210196</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304645</v>
+        <v>1026.092857004309</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673475</v>
+        <v>736.6756869673482</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431737</v>
+        <v>607.3575706431743</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734873</v>
+        <v>485.2364260734877</v>
       </c>
     </row>
     <row r="38">
@@ -7157,19 +7157,19 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307335</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912088</v>
@@ -7181,34 +7181,34 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296684</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710107</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
         <v>2565.332559049856</v>
@@ -7217,7 +7217,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170912</v>
+        <v>839.5784050866012</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630279</v>
+        <v>769.3136567325377</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245357</v>
+        <v>619.1970173202019</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159862</v>
+        <v>471.2839237378088</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919195</v>
+        <v>324.3939762398984</v>
       </c>
       <c r="G40" t="n">
-        <v>114.057868640482</v>
+        <v>156.6911396146174</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7357,25 +7357,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T40" t="n">
-        <v>1612.513483058688</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U40" t="n">
-        <v>1379.448779784039</v>
+        <v>1520.753485332018</v>
       </c>
       <c r="V40" t="n">
-        <v>1124.764291578152</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W40" t="n">
-        <v>835.3471215411912</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431739</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734873</v>
+        <v>922.5554353429974</v>
       </c>
     </row>
     <row r="41">
@@ -7409,10 +7409,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810551</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7421,7 +7421,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939507</v>
@@ -7430,7 +7430,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.60582160917</v>
@@ -7445,13 +7445,13 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960652</v>
@@ -7506,10 +7506,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543.5641013650709</v>
+        <v>749.7479478441292</v>
       </c>
       <c r="C43" t="n">
-        <v>374.627918437164</v>
+        <v>679.4831994900657</v>
       </c>
       <c r="D43" t="n">
-        <v>323.1827135986717</v>
+        <v>628.0379946515734</v>
       </c>
       <c r="E43" t="n">
-        <v>273.9410545901221</v>
+        <v>578.7963356430238</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919198</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218339</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1744.44964124669</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1621.35446039006</v>
       </c>
       <c r="U43" t="n">
-        <v>1323.410616184332</v>
+        <v>1430.923028089547</v>
       </c>
       <c r="V43" t="n">
-        <v>1068.726127978445</v>
+        <v>1274.909974457503</v>
       </c>
       <c r="W43" t="n">
-        <v>877.9803925153276</v>
+        <v>1084.164238994386</v>
       </c>
       <c r="X43" t="n">
-        <v>748.6622761911538</v>
+        <v>954.846122670212</v>
       </c>
       <c r="Y43" t="n">
-        <v>626.5411316214671</v>
+        <v>832.7249781005254</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D44" t="n">
         <v>1181.256586070898</v>
@@ -7634,10 +7634,10 @@
         <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218339</v>
@@ -7646,7 +7646,7 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
         <v>589.210621081055</v>
@@ -7658,7 +7658,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939507</v>
@@ -7667,7 +7667,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
@@ -7679,7 +7679,7 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
         <v>2819.429779746126</v>
@@ -7691,7 +7691,7 @@
         <v>2290.538235362619</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.07033796065</v>
       </c>
     </row>
     <row r="45">
@@ -7743,7 +7743,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7831,25 +7831,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1744.44964124669</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1569.880212084552</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U46" t="n">
-        <v>1280.777345210196</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V46" t="n">
-        <v>1026.092857004309</v>
+        <v>927.4214224304653</v>
       </c>
       <c r="W46" t="n">
-        <v>835.3471215411917</v>
+        <v>736.6756869673483</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431743</v>
+        <v>607.3575706431744</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734877</v>
+        <v>485.2364260734878</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430636</v>
+        <v>157.2353108430621</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729015</v>
+        <v>184.4039433728992</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389613</v>
+        <v>191.4948909389584</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333078</v>
+        <v>181.0856325333045</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830251</v>
+        <v>179.3553748830219</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554384</v>
+        <v>182.8301554383969</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586593</v>
+        <v>190.8908035586567</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.010383626613</v>
+        <v>192.0103836266111</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875977</v>
+        <v>112.6562001875968</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372538</v>
+        <v>113.6031223372522</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672281</v>
+        <v>105.9629718672259</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253601</v>
+        <v>104.1013981253576</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677737</v>
+        <v>92.30246558677482</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359743</v>
+        <v>106.882960835972</v>
       </c>
       <c r="P9" t="n">
-        <v>105.311348779833</v>
+        <v>105.3113487798311</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615462</v>
+        <v>120.8212784615449</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564662</v>
+        <v>116.175525256465</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085232</v>
+        <v>119.1996074085219</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140782</v>
+        <v>108.4284123140769</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530928</v>
+        <v>120.6694600530917</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662708</v>
+        <v>122.5080856662698</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.911359959194669e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>127.4994347185295</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>15.66901280727234</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>277.220684154414</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>62.52018570663925</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>277.220684154416</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>78.40458911672883</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,25 +10349,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>190.2350110279894</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>306.6874953089258</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719372</v>
+        <v>15.0221961971937</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335564</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9558991545851</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524938</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717754</v>
+        <v>110.0543462685392</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302865</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.2020716238783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.911833594811</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443154</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>85.68497798908791</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>123.6136208328913</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>313.3729853582789</v>
+        <v>379.9558991545851</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>27.78673106748951</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579964</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104944</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524938</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302867</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.911833594811</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>15.71579765520563</v>
+        <v>37.1833513443836</v>
       </c>
       <c r="H16" t="n">
         <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271172</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292096</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23732,13 +23732,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>25.01703144686131</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665428</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>167.7369527970442</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>167.7369527970445</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>112.339637131802</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1309637.406572223</v>
+        <v>1309637.406572222</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1105288.992727684</v>
+        <v>1105288.992727685</v>
       </c>
     </row>
     <row r="7">
@@ -26317,43 +26317,43 @@
         <v>204819.0846792596</v>
       </c>
       <c r="D2" t="n">
-        <v>204824.6674514867</v>
+        <v>204824.6674514866</v>
       </c>
       <c r="E2" t="n">
-        <v>182385.0002262436</v>
+        <v>182385.0002262435</v>
       </c>
       <c r="F2" t="n">
-        <v>182385.0002262436</v>
+        <v>182385.0002262437</v>
       </c>
       <c r="G2" t="n">
-        <v>198632.7053116341</v>
+        <v>198632.705311634</v>
       </c>
       <c r="H2" t="n">
-        <v>198632.7053116343</v>
+        <v>198632.705311634</v>
       </c>
       <c r="I2" t="n">
         <v>205260.4424660709</v>
       </c>
       <c r="J2" t="n">
-        <v>205260.4424660706</v>
+        <v>205260.4424660705</v>
       </c>
       <c r="K2" t="n">
+        <v>205260.4424660707</v>
+      </c>
+      <c r="L2" t="n">
+        <v>205260.4424660709</v>
+      </c>
+      <c r="M2" t="n">
         <v>205260.4424660708</v>
       </c>
-      <c r="L2" t="n">
-        <v>205260.4424660706</v>
-      </c>
-      <c r="M2" t="n">
-        <v>205260.4424660709</v>
-      </c>
       <c r="N2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="P2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552156</v>
+        <v>59764.55367552549</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163633</v>
+        <v>1089238.972163629</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487415</v>
+        <v>37580.10929487375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983363</v>
+        <v>22821.46782983369</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179704</v>
+        <v>25409.43302179686</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487411</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26421,40 +26421,40 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>421637.938799543</v>
+        <v>421637.9387995417</v>
       </c>
       <c r="E4" t="n">
-        <v>38804.27401362523</v>
+        <v>38804.27401362506</v>
       </c>
       <c r="F4" t="n">
-        <v>38804.27401362508</v>
+        <v>38804.27401362506</v>
       </c>
       <c r="G4" t="n">
-        <v>75832.4343750674</v>
+        <v>75832.43437506745</v>
       </c>
       <c r="H4" t="n">
-        <v>75832.43437506739</v>
+        <v>75832.43437506742</v>
       </c>
       <c r="I4" t="n">
-        <v>88045.16093451309</v>
+        <v>88045.16093451314</v>
       </c>
       <c r="J4" t="n">
         <v>84858.1594017309</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.15940173094</v>
+        <v>84858.15940173093</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.15940173087</v>
+        <v>84858.15940173091</v>
       </c>
       <c r="M4" t="n">
-        <v>90964.01098815723</v>
+        <v>90964.0109881572</v>
       </c>
       <c r="N4" t="n">
-        <v>90964.01098815718</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="O4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="P4" t="n">
         <v>90964.01098815718</v>
@@ -26473,31 +26473,31 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186633</v>
+        <v>35148.90543186643</v>
       </c>
       <c r="E5" t="n">
+        <v>76569.49036482643</v>
+      </c>
+      <c r="F5" t="n">
         <v>76569.49036482644</v>
       </c>
-      <c r="F5" t="n">
-        <v>76569.49036482642</v>
-      </c>
       <c r="G5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521491</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521491</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184209</v>
+        <v>85736.52830184213</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624984</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-270457.7653165608</v>
+        <v>-270462.1788944289</v>
       </c>
       <c r="C6" t="n">
-        <v>-270457.7653165609</v>
+        <v>-270462.1788944291</v>
       </c>
       <c r="D6" t="n">
-        <v>-311726.7304554442</v>
+        <v>-311731.0882055928</v>
       </c>
       <c r="E6" t="n">
-        <v>-1022227.736315841</v>
+        <v>-1022456.490738236</v>
       </c>
       <c r="F6" t="n">
-        <v>67011.23584779237</v>
+        <v>66782.48142539395</v>
       </c>
       <c r="G6" t="n">
-        <v>4701.518516477605</v>
+        <v>4635.241144933529</v>
       </c>
       <c r="H6" t="n">
-        <v>42281.62781135201</v>
+        <v>42215.35043980733</v>
       </c>
       <c r="I6" t="n">
-        <v>8657.285399882137</v>
+        <v>8657.285399881919</v>
       </c>
       <c r="J6" t="n">
-        <v>5614.908367736527</v>
+        <v>5614.908367736643</v>
       </c>
       <c r="K6" t="n">
-        <v>31024.34138953385</v>
+        <v>31024.3413895337</v>
       </c>
       <c r="L6" t="n">
-        <v>-6555.767905340472</v>
+        <v>-6555.767905340239</v>
       </c>
       <c r="M6" t="n">
-        <v>-170390.2658210605</v>
+        <v>-170390.2658210606</v>
       </c>
       <c r="N6" t="n">
+        <v>31777.83417166388</v>
+      </c>
+      <c r="O6" t="n">
+        <v>31777.8341716638</v>
+      </c>
+      <c r="P6" t="n">
         <v>31777.83417166385</v>
-      </c>
-      <c r="O6" t="n">
-        <v>31777.83417166391</v>
-      </c>
-      <c r="P6" t="n">
-        <v>31777.8341716638</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="F2" t="n">
         <v>26.92014658712635</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790499</v>
+        <v>69.78465283790958</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26799,31 +26799,31 @@
         <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810297</v>
+        <v>917.2219352810303</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022924</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951268</v>
+        <v>50.70958360951253</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790499</v>
+        <v>69.78465283790958</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755393</v>
+        <v>1019.992047755389</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-3.080490326540266e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873705</v>
+        <v>85.82047987873727</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758496</v>
+        <v>97.11452592758428</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959704</v>
+        <v>648.4664495959709</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434006</v>
+        <v>336.6017083434003</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104729</v>
+        <v>199.6603204104722</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780178</v>
+        <v>132.2465643780167</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036574</v>
+        <v>202.6272343036569</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448432</v>
+        <v>221.8677799448431</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256562</v>
+        <v>110.7857668256561</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672117</v>
+        <v>84.22861846672083</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987537</v>
+        <v>90.83829126987476</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192291</v>
+        <v>168.8950767192289</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241798</v>
+        <v>151.6660875241795</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519102</v>
+        <v>84.46220888519044</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990632</v>
+        <v>7.649035050989671</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317073</v>
+        <v>75.62456067317004</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437879</v>
+        <v>171.6351144437875</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207384</v>
+        <v>221.8235295207383</v>
       </c>
       <c r="T10" t="n">
-        <v>227.407904398219</v>
+        <v>227.4079043982189</v>
       </c>
       <c r="U10" t="n">
         <v>286.3121652922773</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.92014658712635</v>
       </c>
     </row>
     <row r="14">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.49558901075565</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075682</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.49558901075511</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075642</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H25" t="n">
-        <v>11.49558901075557</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075682</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859125</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859398</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859381</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -30192,25 +30192,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>46.72521440565242</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U37" t="n">
-        <v>46.72521440565194</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810516</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810516</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810515</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810515</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810515</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810515</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810515</v>
+        <v>55.47778196371117</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U40" t="n">
-        <v>55.47778196370993</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810515</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F43" t="n">
-        <v>55.477781963711</v>
+        <v>45.3929145873864</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -30903,25 +30903,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>46.72521440565257</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>46.72521440565285</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413264</v>
+        <v>0.2805413179413448</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366609</v>
+        <v>2.873093772366798</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993299</v>
+        <v>10.81556915993371</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362267</v>
+        <v>23.81059368362424</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207902</v>
+        <v>35.68590767208137</v>
       </c>
       <c r="L8" t="n">
-        <v>44.2715240310259</v>
+        <v>44.27152403102881</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396496</v>
+        <v>49.2606006939682</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356576</v>
+        <v>50.05768871356905</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328669</v>
+        <v>47.2680559832898</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661018</v>
+        <v>40.34219219661284</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783643</v>
+        <v>30.29530624783842</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313186</v>
+        <v>17.62255356313302</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282587981</v>
+        <v>6.392835282588401</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288157</v>
+        <v>1.228069619288238</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0224433054353061</v>
+        <v>0.02244330543530758</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796447</v>
+        <v>0.1501028381796546</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840253</v>
+        <v>1.449677410840348</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693908</v>
+        <v>5.168014384694247</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906898</v>
+        <v>14.18142647906991</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710517</v>
+        <v>24.23831663710676</v>
       </c>
       <c r="L9" t="n">
-        <v>32.5914079126461</v>
+        <v>32.59140791264824</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665821</v>
+        <v>38.03263579666071</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655593</v>
+        <v>39.03924649655849</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847011</v>
+        <v>35.71328360847246</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449724</v>
+        <v>28.66305863449913</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447535</v>
+        <v>19.16049562447661</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767768</v>
+        <v>9.319542882768381</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608749</v>
+        <v>2.788094384608933</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890062</v>
+        <v>0.605019773189046</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345049</v>
+        <v>0.009875186722345698</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486811</v>
+        <v>0.1258411772486894</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811002</v>
+        <v>1.118842466811075</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078521</v>
+        <v>3.784387403078769</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481754</v>
+        <v>8.89697123148234</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489222</v>
+        <v>14.62045677489318</v>
       </c>
       <c r="L10" t="n">
-        <v>18.7091510247721</v>
+        <v>18.70915102477333</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908189</v>
+        <v>19.72617653908319</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115501</v>
+        <v>19.25713215115627</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839874995</v>
+        <v>17.78707839875112</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287684</v>
+        <v>15.21991838287784</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852365</v>
+        <v>10.53748257852435</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381606</v>
+        <v>5.658276933381978</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233833</v>
+        <v>2.193068516233977</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625464</v>
+        <v>0.5376850300625817</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564432</v>
+        <v>0.006864064213564883</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233474</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,10 +32786,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035316</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33266,7 +33266,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233474</v>
@@ -33278,7 +33278,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987486</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O33" t="n">
         <v>557.7086478970249</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33752,10 +33752,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34226,7 +34226,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987486</v>
@@ -34463,10 +34463,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019275</v>
+        <v>72.49856320019258</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314461</v>
+        <v>232.9678061314459</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573247</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097663</v>
+        <v>329.2732768097661</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250202</v>
+        <v>105.31438512502</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019255</v>
+        <v>72.49856320019261</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573244</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806101</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546664</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322367</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
         <v>105.31438512502</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687146</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554004</v>
@@ -35902,7 +35902,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222472</v>
@@ -35966,7 +35966,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013291</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222663</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>318.286435687242</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
@@ -36373,10 +36373,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>414.430999026644</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060957</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737858</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>122.133384248864</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K28" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887893</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637044</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
@@ -36847,13 +36847,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>675.9826703737876</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>329.1988939204483</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013291</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127271</v>
@@ -37069,25 +37069,25 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>527.4262975833898</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>858.9893307218371</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222472</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525805</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165868</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887919</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37400,10 +37400,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302257</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129113</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597746</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302267</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129113</v>
@@ -37874,7 +37874,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127271</v>
@@ -38017,7 +38017,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923319</v>
@@ -38111,10 +38111,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
